--- a/output/StructureDefinition-generic-observation.xlsx
+++ b/output/StructureDefinition-generic-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-generic-observation.xlsx
+++ b/output/StructureDefinition-generic-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-generic-observation.xlsx
+++ b/output/StructureDefinition-generic-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-generic-observation.xlsx
+++ b/output/StructureDefinition-generic-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-generic-observation.xlsx
+++ b/output/StructureDefinition-generic-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
